--- a/animalchange/databron/originele data van cbs.xlsx
+++ b/animalchange/databron/originele data van cbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobbo\OneDrive\Documenten\GitHub\Programmeerproject\animalchange\databron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="4BCA41231FC80517A0C023C44888119E0BE4830D" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{706BAFAB-1B8A-43D6-8ED6-4E3DB7838CD2}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="4BCA41231FC80517A0C023C44888119E0BE4830D" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{15E1AC0B-3AF9-486E-AFF0-30DAAB678F93}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,23 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Omschrijving" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Data!$W$3:$AM$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Data!$W$4:$AM$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Data!$W$3:$AM$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Data!$W$4:$AM$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Data!$W$5:$AM$5</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Data!$W$6:$AM$6</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Data!$W$7:$AM$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Data!$W$5:$AM$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Data!$W$6:$AM$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Data!$W$7:$AM$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Data!$W$3:$AM$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Data!$W$4:$AM$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Data!$W$5:$AM$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Data!$W$6:$AM$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Data!$W$7:$AM$7</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -941,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HR251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C29:C32"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,6 +967,7 @@
     <col min="1" max="1" width="13.21875" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:226" x14ac:dyDescent="0.3">
@@ -9170,1126 +9188,668 @@
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <v>14523</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <v>3860</v>
-      </c>
-    </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>121</v>
-      </c>
-      <c r="H31" s="1">
-        <v>104014665</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <v>201</v>
-      </c>
-      <c r="H32" s="1">
-        <v>100333709</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H33" s="1">
-        <v>101051852</v>
-      </c>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H34" s="1">
-        <v>79234855</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="1">
-        <v>85816077</v>
-      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H36" s="1">
-        <v>92914176</v>
-      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H37" s="1">
-        <v>91782259</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H38" s="1">
-        <v>92760859</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H39" s="1">
-        <v>96700237</v>
-      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H40" s="1">
-        <v>96859484</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H41" s="1">
-        <v>101247711</v>
-      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H42" s="1">
-        <v>96918611</v>
-      </c>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H43" s="1">
-        <v>95273269</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H44" s="1">
-        <v>97719294</v>
-      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H45" s="1">
-        <v>103038539</v>
-      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H46" s="1">
-        <v>106762945</v>
-      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H47" s="1">
-        <v>105619586</v>
-      </c>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H48" s="1">
-        <v>5548208</v>
-      </c>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H49" s="1">
-        <v>5546671</v>
-      </c>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H50" s="1">
-        <v>5732208</v>
-      </c>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H51" s="1">
-        <v>5221647</v>
-      </c>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H52" s="1">
-        <v>5318813</v>
-      </c>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H53" s="1">
-        <v>5305602</v>
-      </c>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H54" s="1">
-        <v>5366706</v>
-      </c>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H55" s="1">
-        <v>5772700</v>
-      </c>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H56" s="1">
-        <v>5954403</v>
-      </c>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H57" s="1">
-        <v>5245974</v>
-      </c>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H58" s="1">
-        <v>5859813</v>
-      </c>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H59" s="1">
-        <v>5582389</v>
-      </c>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H60" s="1">
-        <v>5633621</v>
-      </c>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H61" s="1">
-        <v>5960825</v>
-      </c>
+      <c r="H61" s="1"/>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H62" s="1">
-        <v>5987152</v>
-      </c>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H63" s="1">
-        <v>6095849</v>
-      </c>
+      <c r="H63" s="1"/>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H64" s="1">
-        <v>5706031</v>
-      </c>
+      <c r="H64" s="1"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H65" s="1">
-        <v>6674687</v>
-      </c>
+      <c r="H65" s="1"/>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H66" s="1">
-        <v>6670821</v>
-      </c>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H67" s="1">
-        <v>7168591</v>
-      </c>
+      <c r="H67" s="1"/>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H68" s="1">
-        <v>6201416</v>
-      </c>
+      <c r="H68" s="1"/>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H69" s="1">
-        <v>6456548</v>
-      </c>
+      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H70" s="1">
-        <v>6741706</v>
-      </c>
+      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H71" s="1">
-        <v>7333416</v>
-      </c>
+      <c r="H71" s="1"/>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H72" s="1">
-        <v>7458939</v>
-      </c>
+      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H73" s="1">
-        <v>7681128</v>
-      </c>
+      <c r="H73" s="1"/>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H74" s="1">
-        <v>8718914</v>
-      </c>
+      <c r="H74" s="1"/>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H75" s="1">
-        <v>7825595</v>
-      </c>
+      <c r="H75" s="1"/>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H76" s="1">
-        <v>8061468</v>
-      </c>
+      <c r="H76" s="1"/>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H77" s="1">
-        <v>8022285</v>
-      </c>
+      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H78" s="1">
-        <v>7763430</v>
-      </c>
+      <c r="H78" s="1"/>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H79" s="1">
-        <v>7787656</v>
-      </c>
+      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H80" s="1">
-        <v>8945589</v>
-      </c>
+      <c r="H80" s="1"/>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H81" s="1">
-        <v>8296977</v>
-      </c>
+      <c r="H81" s="1"/>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H82" s="1">
-        <v>6662961</v>
-      </c>
+      <c r="H82" s="1"/>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H83" s="1">
-        <v>6475089</v>
-      </c>
+      <c r="H83" s="1"/>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H84" s="1">
-        <v>6902156</v>
-      </c>
+      <c r="H84" s="1"/>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H85" s="1">
-        <v>5496986</v>
-      </c>
+      <c r="H85" s="1"/>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H86" s="1">
-        <v>5311997</v>
-      </c>
+      <c r="H86" s="1"/>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H87" s="1">
-        <v>6508283</v>
-      </c>
+      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H88" s="1">
-        <v>5736650</v>
-      </c>
+      <c r="H88" s="1"/>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H89" s="1">
-        <v>6231531</v>
-      </c>
+      <c r="H89" s="1"/>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H90" s="1">
-        <v>6121176</v>
-      </c>
+      <c r="H90" s="1"/>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H91" s="1">
-        <v>6162441</v>
-      </c>
+      <c r="H91" s="1"/>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H92" s="1">
-        <v>6718001</v>
-      </c>
+      <c r="H92" s="1"/>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H93" s="1">
-        <v>6397605</v>
-      </c>
+      <c r="H93" s="1"/>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H94" s="1">
-        <v>6433737</v>
-      </c>
+      <c r="H94" s="1"/>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H95" s="1">
-        <v>6313537</v>
-      </c>
+      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H96" s="1">
-        <v>7059639</v>
-      </c>
+      <c r="H96" s="1"/>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H97" s="1">
-        <v>7442536</v>
-      </c>
+      <c r="H97" s="1"/>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H98" s="1">
-        <v>7536041</v>
-      </c>
+      <c r="H98" s="1"/>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H99" s="1">
-        <v>10218785</v>
-      </c>
+      <c r="H99" s="1"/>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H100" s="1">
-        <v>10676657</v>
-      </c>
+      <c r="H100" s="1"/>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H101" s="1">
-        <v>10223256</v>
-      </c>
+      <c r="H101" s="1"/>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H102" s="1">
-        <v>9161084</v>
-      </c>
+      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H103" s="1">
-        <v>8437906</v>
-      </c>
+      <c r="H103" s="1"/>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H104" s="1">
-        <v>9124521</v>
-      </c>
+      <c r="H104" s="1"/>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H105" s="1">
-        <v>9075139</v>
-      </c>
+      <c r="H105" s="1"/>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H106" s="1">
-        <v>9244347</v>
-      </c>
+      <c r="H106" s="1"/>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H107" s="1">
-        <v>10312963</v>
-      </c>
+      <c r="H107" s="1"/>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H108" s="1">
-        <v>10022750</v>
-      </c>
+      <c r="H108" s="1"/>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H109" s="1">
-        <v>10300899</v>
-      </c>
+      <c r="H109" s="1"/>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H110" s="1">
-        <v>10631637</v>
-      </c>
+      <c r="H110" s="1"/>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H111" s="1">
-        <v>9819108</v>
-      </c>
+      <c r="H111" s="1"/>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H112" s="1">
-        <v>10189953</v>
-      </c>
+      <c r="H112" s="1"/>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H113" s="1">
-        <v>11493220</v>
-      </c>
+      <c r="H113" s="1"/>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H114" s="1">
-        <v>11923662</v>
-      </c>
+      <c r="H114" s="1"/>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H115" s="1">
-        <v>11790545</v>
-      </c>
+      <c r="H115" s="1"/>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H116" s="1">
-        <v>2069829</v>
-      </c>
+      <c r="H116" s="1"/>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H117" s="1">
-        <v>2086170</v>
-      </c>
+      <c r="H117" s="1"/>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H118" s="1">
-        <v>2144277</v>
-      </c>
+      <c r="H118" s="1"/>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H119" s="1">
-        <v>1976987</v>
-      </c>
+      <c r="H119" s="1"/>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H120" s="1">
-        <v>1886536</v>
-      </c>
+      <c r="H120" s="1"/>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H121" s="1">
-        <v>1831371</v>
-      </c>
+      <c r="H121" s="1"/>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H122" s="1">
-        <v>1948317</v>
-      </c>
+      <c r="H122" s="1"/>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H123" s="1">
-        <v>2179606</v>
-      </c>
+      <c r="H123" s="1"/>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H124" s="1">
-        <v>2062696</v>
-      </c>
+      <c r="H124" s="1"/>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H125" s="1">
-        <v>2067021</v>
-      </c>
+      <c r="H125" s="1"/>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H126" s="1">
-        <v>2272115</v>
-      </c>
+      <c r="H126" s="1"/>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H127" s="1">
-        <v>2253368</v>
-      </c>
+      <c r="H127" s="1"/>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H128" s="1">
-        <v>2160103</v>
-      </c>
+      <c r="H128" s="1"/>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H129" s="1">
-        <v>2390440</v>
-      </c>
+      <c r="H129" s="1"/>
     </row>
     <row r="130" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H130" s="1">
-        <v>2567359</v>
-      </c>
+      <c r="H130" s="1"/>
     </row>
     <row r="131" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H131" s="1">
-        <v>2675974</v>
-      </c>
+      <c r="H131" s="1"/>
     </row>
     <row r="132" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H132" s="1">
-        <v>2762472</v>
-      </c>
+      <c r="H132" s="1"/>
     </row>
     <row r="133" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H133" s="1">
-        <v>19999244</v>
-      </c>
+      <c r="H133" s="1"/>
     </row>
     <row r="134" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H134" s="1">
-        <v>18561459</v>
-      </c>
+      <c r="H134" s="1"/>
     </row>
     <row r="135" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H135" s="1">
-        <v>18212605</v>
-      </c>
+      <c r="H135" s="1"/>
     </row>
     <row r="136" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H136" s="1">
-        <v>9666353</v>
-      </c>
+      <c r="H136" s="1"/>
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H137" s="1">
-        <v>16369308</v>
-      </c>
+      <c r="H137" s="1"/>
     </row>
     <row r="138" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H138" s="1">
-        <v>17181834</v>
-      </c>
+      <c r="H138" s="1"/>
     </row>
     <row r="139" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H139" s="1">
-        <v>16481551</v>
-      </c>
+      <c r="H139" s="1"/>
     </row>
     <row r="140" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H140" s="1">
-        <v>16568663</v>
-      </c>
+      <c r="H140" s="1"/>
     </row>
     <row r="141" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H141" s="1">
-        <v>18291359</v>
-      </c>
+      <c r="H141" s="1"/>
     </row>
     <row r="142" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H142" s="1">
-        <v>17653097</v>
-      </c>
+      <c r="H142" s="1"/>
     </row>
     <row r="143" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H143" s="1">
-        <v>18793947</v>
-      </c>
+      <c r="H143" s="1"/>
     </row>
     <row r="144" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H144" s="1">
-        <v>17733521</v>
-      </c>
+      <c r="H144" s="1"/>
     </row>
     <row r="145" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H145" s="1">
-        <v>16781755</v>
-      </c>
+      <c r="H145" s="1"/>
     </row>
     <row r="146" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H146" s="1">
-        <v>17514232</v>
-      </c>
+      <c r="H146" s="1"/>
     </row>
     <row r="147" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H147" s="1">
-        <v>18359711</v>
-      </c>
+      <c r="H147" s="1"/>
     </row>
     <row r="148" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H148" s="1">
-        <v>18253826</v>
-      </c>
+      <c r="H148" s="1"/>
     </row>
     <row r="149" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H149" s="1">
-        <v>17655436</v>
-      </c>
+      <c r="H149" s="1"/>
     </row>
     <row r="150" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H150" s="1">
-        <v>1791186</v>
-      </c>
+      <c r="H150" s="1"/>
     </row>
     <row r="151" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H151" s="1">
-        <v>1622417</v>
-      </c>
+      <c r="H151" s="1"/>
     </row>
     <row r="152" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H152" s="1">
-        <v>1618372</v>
-      </c>
+      <c r="H152" s="1"/>
     </row>
     <row r="153" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H153" s="1">
-        <v>632612</v>
-      </c>
+      <c r="H153" s="1"/>
     </row>
     <row r="154" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H154" s="1">
-        <v>1374490</v>
-      </c>
+      <c r="H154" s="1"/>
     </row>
     <row r="155" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H155" s="1">
-        <v>1458070</v>
-      </c>
+      <c r="H155" s="1"/>
     </row>
     <row r="156" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H156" s="1">
-        <v>1652297</v>
-      </c>
+      <c r="H156" s="1"/>
     </row>
     <row r="157" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H157" s="1">
-        <v>1637713</v>
-      </c>
+      <c r="H157" s="1"/>
     </row>
     <row r="158" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H158" s="1">
-        <v>1835479</v>
-      </c>
+      <c r="H158" s="1"/>
     </row>
     <row r="159" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H159" s="1">
-        <v>1772387</v>
-      </c>
+      <c r="H159" s="1"/>
     </row>
     <row r="160" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H160" s="1">
-        <v>2314800</v>
-      </c>
+      <c r="H160" s="1"/>
     </row>
     <row r="161" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H161" s="1">
-        <v>2095666</v>
-      </c>
+      <c r="H161" s="1"/>
     </row>
     <row r="162" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H162" s="1">
-        <v>2303637</v>
-      </c>
+      <c r="H162" s="1"/>
     </row>
     <row r="163" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H163" s="1">
-        <v>2321615</v>
-      </c>
+      <c r="H163" s="1"/>
     </row>
     <row r="164" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H164" s="1">
-        <v>2888072</v>
-      </c>
+      <c r="H164" s="1"/>
     </row>
     <row r="165" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H165" s="1">
-        <v>2966443</v>
-      </c>
+      <c r="H165" s="1"/>
     </row>
     <row r="166" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H166" s="1">
-        <v>3034070</v>
-      </c>
+      <c r="H166" s="1"/>
     </row>
     <row r="167" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H167" s="1">
-        <v>1461629</v>
-      </c>
+      <c r="H167" s="1"/>
     </row>
     <row r="168" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H168" s="1">
-        <v>1369506</v>
-      </c>
+      <c r="H168" s="1"/>
     </row>
     <row r="169" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H169" s="1">
-        <v>1599984</v>
-      </c>
+      <c r="H169" s="1"/>
     </row>
     <row r="170" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H170" s="1">
-        <v>1497879</v>
-      </c>
+      <c r="H170" s="1"/>
     </row>
     <row r="171" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H171" s="1">
-        <v>1399204</v>
-      </c>
+      <c r="H171" s="1"/>
     </row>
     <row r="172" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H172" s="1">
-        <v>1441126</v>
-      </c>
+      <c r="H172" s="1"/>
     </row>
     <row r="173" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H173" s="1">
-        <v>1371170</v>
-      </c>
+      <c r="H173" s="1"/>
     </row>
     <row r="174" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H174" s="1">
-        <v>1287174</v>
-      </c>
+      <c r="H174" s="1"/>
     </row>
     <row r="175" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H175" s="1">
-        <v>1372950</v>
-      </c>
+      <c r="H175" s="1"/>
     </row>
     <row r="176" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H176" s="1">
-        <v>1060287</v>
-      </c>
+      <c r="H176" s="1"/>
     </row>
     <row r="177" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H177" s="1">
-        <v>1217486</v>
-      </c>
+      <c r="H177" s="1"/>
     </row>
     <row r="178" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H178" s="1">
-        <v>1150011</v>
-      </c>
+      <c r="H178" s="1"/>
     </row>
     <row r="179" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H179" s="1">
-        <v>904305</v>
-      </c>
+      <c r="H179" s="1"/>
     </row>
     <row r="180" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H180" s="1">
-        <v>1271717</v>
-      </c>
+      <c r="H180" s="1"/>
     </row>
     <row r="181" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H181" s="1">
-        <v>1378052</v>
-      </c>
+      <c r="H181" s="1"/>
     </row>
     <row r="182" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H182" s="1">
-        <v>1508312</v>
-      </c>
+      <c r="H182" s="1"/>
     </row>
     <row r="183" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H183" s="1">
-        <v>1784311</v>
-      </c>
+      <c r="H183" s="1"/>
     </row>
     <row r="184" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H184" s="1">
-        <v>1369578</v>
-      </c>
+      <c r="H184" s="1"/>
     </row>
     <row r="185" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H185" s="1">
-        <v>1409523</v>
-      </c>
+      <c r="H185" s="1"/>
     </row>
     <row r="186" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H186" s="1">
-        <v>1612646</v>
-      </c>
+      <c r="H186" s="1"/>
     </row>
     <row r="187" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H187" s="1">
-        <v>1235222</v>
-      </c>
+      <c r="H187" s="1"/>
     </row>
     <row r="188" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H188" s="1">
-        <v>1238923</v>
-      </c>
+      <c r="H188" s="1"/>
     </row>
     <row r="189" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H189" s="1">
-        <v>1193554</v>
-      </c>
+      <c r="H189" s="1"/>
     </row>
     <row r="190" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H190" s="1">
-        <v>952701</v>
-      </c>
+      <c r="H190" s="1"/>
     </row>
     <row r="191" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H191" s="1">
-        <v>1266111</v>
-      </c>
+      <c r="H191" s="1"/>
     </row>
     <row r="192" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H192" s="1">
-        <v>912386</v>
-      </c>
+      <c r="H192" s="1"/>
     </row>
     <row r="193" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H193" s="1">
-        <v>697036</v>
-      </c>
+      <c r="H193" s="1"/>
     </row>
     <row r="194" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H194" s="1">
-        <v>688533</v>
-      </c>
+      <c r="H194" s="1"/>
     </row>
     <row r="195" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H195" s="1">
-        <v>831314</v>
-      </c>
+      <c r="H195" s="1"/>
     </row>
     <row r="196" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H196" s="1">
-        <v>861472</v>
-      </c>
+      <c r="H196" s="1"/>
     </row>
     <row r="197" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H197" s="1">
-        <v>720821</v>
-      </c>
+      <c r="H197" s="1"/>
     </row>
     <row r="198" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H198" s="1">
-        <v>836763</v>
-      </c>
+      <c r="H198" s="1"/>
     </row>
     <row r="199" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H199" s="1">
-        <v>692346</v>
-      </c>
+      <c r="H199" s="1"/>
     </row>
     <row r="200" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H200" s="1">
-        <v>810688</v>
-      </c>
+      <c r="H200" s="1"/>
     </row>
     <row r="201" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H201" s="1">
-        <v>1954061</v>
-      </c>
+      <c r="H201" s="1"/>
     </row>
     <row r="202" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H202" s="1">
-        <v>1891880</v>
-      </c>
+      <c r="H202" s="1"/>
     </row>
     <row r="203" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H203" s="1">
-        <v>1878907</v>
-      </c>
+      <c r="H203" s="1"/>
     </row>
     <row r="204" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H204" s="1">
-        <v>2064318</v>
-      </c>
+      <c r="H204" s="1"/>
     </row>
     <row r="205" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H205" s="1">
-        <v>1629610</v>
-      </c>
+      <c r="H205" s="1"/>
     </row>
     <row r="206" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H206" s="1">
-        <v>1965360</v>
-      </c>
+      <c r="H206" s="1"/>
     </row>
     <row r="207" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H207" s="1">
-        <v>1973616</v>
-      </c>
+      <c r="H207" s="1"/>
     </row>
     <row r="208" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H208" s="1">
-        <v>1532987</v>
-      </c>
+      <c r="H208" s="1"/>
     </row>
     <row r="209" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H209" s="1">
-        <v>1746076</v>
-      </c>
+      <c r="H209" s="1"/>
     </row>
     <row r="210" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H210" s="1">
-        <v>1724296</v>
-      </c>
+      <c r="H210" s="1"/>
     </row>
     <row r="211" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H211" s="1">
-        <v>1765791</v>
-      </c>
+      <c r="H211" s="1"/>
     </row>
     <row r="212" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H212" s="1">
-        <v>1698175</v>
-      </c>
+      <c r="H212" s="1"/>
     </row>
     <row r="213" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H213" s="1">
-        <v>1760614</v>
-      </c>
+      <c r="H213" s="1"/>
     </row>
     <row r="214" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H214" s="1">
-        <v>1716880</v>
-      </c>
+      <c r="H214" s="1"/>
     </row>
     <row r="215" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H215" s="1">
-        <v>1620944</v>
-      </c>
+      <c r="H215" s="1"/>
     </row>
     <row r="216" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H216" s="1">
-        <v>1975650</v>
-      </c>
+      <c r="H216" s="1"/>
     </row>
     <row r="217" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H217" s="1">
-        <v>1687879</v>
-      </c>
+      <c r="H217" s="1"/>
     </row>
     <row r="218" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H218" s="1">
-        <v>29113756</v>
-      </c>
+      <c r="H218" s="1"/>
     </row>
     <row r="219" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H219" s="1">
-        <v>27494666</v>
-      </c>
+      <c r="H219" s="1"/>
     </row>
     <row r="220" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H220" s="1">
-        <v>28371249</v>
-      </c>
+      <c r="H220" s="1"/>
     </row>
     <row r="221" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H221" s="1">
-        <v>22893788</v>
-      </c>
+      <c r="H221" s="1"/>
     </row>
     <row r="222" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H222" s="1">
-        <v>23634172</v>
-      </c>
+      <c r="H222" s="1"/>
     </row>
     <row r="223" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H223" s="1">
-        <v>25788796</v>
-      </c>
+      <c r="H223" s="1"/>
     </row>
     <row r="224" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H224" s="1">
-        <v>25636276</v>
-      </c>
+      <c r="H224" s="1"/>
     </row>
     <row r="225" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H225" s="1">
-        <v>25622843</v>
-      </c>
+      <c r="H225" s="1"/>
     </row>
     <row r="226" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H226" s="1">
-        <v>25279271</v>
-      </c>
+      <c r="H226" s="1"/>
     </row>
     <row r="227" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H227" s="1">
-        <v>25917994</v>
-      </c>
+      <c r="H227" s="1"/>
     </row>
     <row r="228" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H228" s="1">
-        <v>27798280</v>
-      </c>
+      <c r="H228" s="1"/>
     </row>
     <row r="229" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H229" s="1">
-        <v>26531857</v>
-      </c>
+      <c r="H229" s="1"/>
     </row>
     <row r="230" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H230" s="1">
-        <v>26609930</v>
-      </c>
+      <c r="H230" s="1"/>
     </row>
     <row r="231" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H231" s="1">
-        <v>26828509</v>
-      </c>
+      <c r="H231" s="1"/>
     </row>
     <row r="232" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H232" s="1">
-        <v>27480810</v>
-      </c>
+      <c r="H232" s="1"/>
     </row>
     <row r="233" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H233" s="1">
-        <v>28254616</v>
-      </c>
+      <c r="H233" s="1"/>
     </row>
     <row r="234" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H234" s="1">
-        <v>27743546</v>
-      </c>
+      <c r="H234" s="1"/>
     </row>
     <row r="235" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H235" s="1">
-        <v>17150741</v>
-      </c>
+      <c r="H235" s="1"/>
     </row>
     <row r="236" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H236" s="1">
-        <v>16528850</v>
-      </c>
+      <c r="H236" s="1"/>
     </row>
     <row r="237" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H237" s="1">
-        <v>15587601</v>
-      </c>
+      <c r="H237" s="1"/>
     </row>
     <row r="238" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H238" s="1">
-        <v>13186563</v>
-      </c>
+      <c r="H238" s="1"/>
     </row>
     <row r="239" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H239" s="1">
-        <v>12758570</v>
-      </c>
+      <c r="H239" s="1"/>
     </row>
     <row r="240" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H240" s="1">
-        <v>14373953</v>
-      </c>
+      <c r="H240" s="1"/>
     </row>
     <row r="241" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H241" s="1">
-        <v>14254420</v>
-      </c>
+      <c r="H241" s="1"/>
     </row>
     <row r="242" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H242" s="1">
-        <v>13958245</v>
-      </c>
+      <c r="H242" s="1"/>
     </row>
     <row r="243" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H243" s="1">
-        <v>15130350</v>
-      </c>
+      <c r="H243" s="1"/>
     </row>
     <row r="244" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H244" s="1">
-        <v>15817287</v>
-      </c>
+      <c r="H244" s="1"/>
     </row>
     <row r="245" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H245" s="1">
-        <v>15692451</v>
-      </c>
+      <c r="H245" s="1"/>
     </row>
     <row r="246" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H246" s="1">
-        <v>13951600</v>
-      </c>
+      <c r="H246" s="1"/>
     </row>
     <row r="247" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H247" s="1">
-        <v>13982702</v>
-      </c>
+      <c r="H247" s="1"/>
     </row>
     <row r="248" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H248" s="1">
-        <v>14727335</v>
-      </c>
+      <c r="H248" s="1"/>
     </row>
     <row r="249" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H249" s="1">
-        <v>15579161</v>
-      </c>
+      <c r="H249" s="1"/>
     </row>
     <row r="250" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H250" s="1">
-        <v>16028142</v>
-      </c>
+      <c r="H250" s="1"/>
     </row>
     <row r="251" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H251" s="1">
-        <v>16811590</v>
-      </c>
+      <c r="H251" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
